--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Snacks e salgadinhos.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Snacks e salgadinhos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Club Social Original 144g</t>
+          <t>Salgadinho Ebicen Camarão 60gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a29fc074-b86f-429d-a3bb-6368e2cbd1b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/869c60dd-22ec-4a43-bb55-f39b4142d8d5.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896039010140</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Batata Palha Da Terrinha 100g Tradicional</t>
+          <t>Salgadinho Ebicen Cebola 60gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c61b9655-e3c8-42a1-8303-70e73ccba2b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69086cb4-a38d-42b6-9a6b-5ed53c7c8788.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896039010249</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Batata Palha Da Terrinha 100g Extra Fina</t>
+          <t>Salgadinho Ebicen Camarão 30gr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11343bf0-4629-4b26-acb1-d8530bdb5805.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea1f2ef-bfbf-43af-923b-cd770dac85f2.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896039010119</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Batata Palha Kisabor 100g Extra Fina</t>
+          <t>Salgadinho Ebicen 30g Cebola</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2d9954d-1eff-4247-8272-67d14e101ed3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e4cf8cf-0b54-459c-8244-7f7c60362fff.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896039010218</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Batata Palha Kisabor 100g Tradicional</t>
+          <t>Salgadinho Piraque Queijo 100g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43cb3ba9-2282-4864-ba62-614ce9325e1d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7678ae9-5eda-4433-a898-96c7a8f7890c.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896024720207</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Batata Palha Extra Fina Yoki 100g</t>
+          <t>Salgadinho Piraque Presuntinho 100g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d5cd4fb-e638-4006-8e9d-89c2a58681c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49fa8f03-81a0-425c-9a4d-b19cb1edcfa0.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896024720382</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Batata Palha Na Mesa 215g Tradicional</t>
+          <t>Salg Trigo Tiba 70g Bacon</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 22,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a51a0d56-a195-4fe0-bacc-5439716aa8fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69c03d4e-4128-45da-b2dc-f1a5176ac35b.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7897164400127</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 120g Nacho</t>
+          <t>Biscoito Tuc`s Pizza 100g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0207ab92-5727-469d-a919-c81d50b0a4f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/260b42a7-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896061301865</t>
         </is>
       </c>
     </row>
@@ -677,7 +722,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Tucs 100g Tradicional</t>
+          <t>Biscoito Salgado Tucs 100g Queijo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,7 +732,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25ec28a8-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9fc719d-06ee-4051-a384-98000acd29a0.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896061300189</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Batata Frita Ruffles Original Elma Chips 115g</t>
+          <t>Biscoito Tucs Din 100g Salame</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0347ce6-15d4-4372-96c7-aa51438e7c2a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9fe9c55-b29c-4586-854d-28e2c61c4248.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896061301872</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Batata Pringles 109g Queijo</t>
+          <t>Biscoito Salg Tucs 100g Bacon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aa99006-8a68-498f-894e-d06a1fbdaf70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7abdb234-4265-48cb-b566-2a2ff81b9835.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896061301339</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Batata Pringles 109g Churrasco</t>
+          <t>Salg Roots To Go 45g Original</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/311eaacb-fa88-4efb-95a0-4b3365dfa553.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6f2ac68-663a-4fac-aee0-bddd752ac4a2.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7898557010077</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Batata Ruffles Tudo 100g Original</t>
+          <t>Salgadinho Hits Sol 80gr Original</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3321b3cd-d1b9-4c0f-af43-068ba71d7c1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ede6431a-c91c-47bd-8bd5-8ccd3420020a.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896005217474</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Batata Frita Lays 115g Classica</t>
+          <t>Salgadinho Hits Sol 80gr Queijo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39139306-6fe5-4297-8490-db0851d20933.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a9989e2-9f69-4f1c-a19f-9c27da571adf.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896005217450</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Onda 40g</t>
+          <t>Salgadinho Hits Sol 80gr Presunto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ff6d809-c861-4875-b693-7b7c5a270924.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab647bb0-8fe0-4fc6-940c-fa1e7ab0dfaf.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896005217467</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Batata Palha Elma Chips Tradicional 100g</t>
+          <t>Salgadinho Hits Sol 80gr Churrasco</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24a97b91-25f1-4fac-985e-fef425879264.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a710fc6b-6345-4ae3-9c22-d7398c65a0c5.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896005217498</t>
         </is>
       </c>
     </row>
@@ -906,6 +991,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7b0ea45-cf0c-4530-a425-0add4d2c7a02.jpg</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896005217450</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salgadinho Lucky Torcida 60g Queijo</t>
+          <t>Chip Mix S/gluten Natural Life 70gr Chur</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/198b11c6-b35e-4d52-a924-a40eb79bd856.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2528a3b-69ab-4a0c-a7cd-261b3ec6322f.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896256065473</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Batata Pringles 105g Cheddar E Bacon</t>
+          <t>Batata Ondulada Sabor Arte 40gr Trad</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9eb20614-0fa4-4e44-b10f-9674792b8875.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/760264b3-126b-471a-a66f-e4200774e9cb.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898961883304</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 75g Nacho</t>
+          <t>Batata Palha Kisabor 100g Tradicional</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e95c21ce-3d84-4c78-8b41-fdd2944341eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43cb3ba9-2282-4864-ba62-614ce9325e1d.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898937864955</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Club Social Recheado Queijo, Tomate E Manjericão 144g</t>
+          <t>Batata Palha Kisabor 100g Extra Fina</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/83f00a85-610d-4925-8888-5931bd2143da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2d9954d-1eff-4247-8272-67d14e101ed3.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898937864955</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Salgadinho De Trigo Bacon Torcida Pacote 60g</t>
+          <t>Batata Palha Na Mesa 215g Tradicional</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 22,98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/90c57438-c287-458a-bf6b-01401607fd04.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a51a0d56-a195-4fe0-bacc-5439716aa8fa.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7892840818241</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Biscoito Club Social 106g Recheado Requeijão</t>
+          <t>Batata Ruffles 115g Churrasco</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d060947-d5be-4b52-ad9e-b0715c7950a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f95c356-d82c-419c-973a-6a57e2c690bb.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7892840822965</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Batata Frita Lays 70g Classica</t>
+          <t>Batata Frita Ruffles Original Elma Chips 115g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c8095aa-4d67-4993-bec8-899623191318.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0347ce6-15d4-4372-96c7-aa51438e7c2a.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7892840822972</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Batata Ondulada Sabor Arte 40gr Trad</t>
+          <t>Batata Palha Extra Fina Yoki 100g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/760264b3-126b-471a-a66f-e4200774e9cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d5cd4fb-e638-4006-8e9d-89c2a58681c6.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891095031122</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Onda 160g</t>
+          <t>Salg Roots Go 45gr Dijon</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7641096-16de-4f59-91ad-0003f1e5a63c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/965f5095-802f-4535-bf7a-2420a86501a0.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898557010640</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Salgadinho Ebicen Camarão 30gr</t>
+          <t>Salg Roots To Go 45g Azeite/manjericao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea1f2ef-bfbf-43af-923b-cd770dac85f2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/162511a1-fc04-4ed6-a693-9db8062fb843.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898557010626</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1330,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ovinho De Amendoim Elma Chips 145g</t>
+          <t>Salg Roots To Go 45g Especiarias</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1200,7 +1340,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c437a0e-5732-4fa0-9e62-3a07000b9692.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f643e2b-8a75-4601-820f-4bd472335c28.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898557010633</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 32g Nacho</t>
+          <t>Salg Roots To Go 45g Sweet Potato</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04a74252-a8cc-4a05-95bc-774a3e8c905c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7915eb3-59d9-429e-8ce1-05a47951d773.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898557010169</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Biscoito Club Social 144g Pizza</t>
+          <t>Snack Tai Kalassi Rice Crackers 100g Sour Cream/onion</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfc08cc6-73c0-4753-90ef-42e8d29a99e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f129841b-8238-4f6f-b9b7-0bc65f18d70a.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896053800451</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Biscoito Tuc`s Pizza 100g</t>
+          <t>Salgadinho Bacon Pepe Legal 180g Listrado</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/260b42a7-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e30a846-513c-428f-8dcd-ec743c43d7d6.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896950800066</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Salgadinho Fandangos 160g Presunto</t>
+          <t>Salgadinho Bacon Pepe Legal 70g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34ff99a8-871f-4b35-a810-c23aa6e6483e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0815d347-2717-4cf2-90f0-5b9ba74121ab.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896950800103</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Batata Palha Extra Fina Elma Chips 90g</t>
+          <t>Salgadinho Bacon Pepe Legal 80g Listrado</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d1bbaf3-4210-4066-b796-56c6f7d48530.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1197c9f5-87da-4277-a24e-9771b271af8a.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896950800066</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Biscoito Salg Tucs 100g Bacon</t>
+          <t>Salgadinho Cebolitos Elma Chips 190g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7abdb234-4265-48cb-b566-2a2ff81b9835.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/265198d4-6360-463e-aa92-289d87265ed7.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7892840818470</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Salgadinho Hits Sol 80gr Churrasco</t>
+          <t>Salgadinho Doritos 78g Pizza</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a710fc6b-6345-4ae3-9c22-d7398c65a0c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/515f5f37-c0db-464f-b878-224fb4b9158a.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7892840820060</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Batata Frita Lays 70g Sour Cream</t>
+          <t>Salgadinho Doritos 140g Pizza</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7646f389-b758-441b-a8be-c06a4629fa2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4e197db-7001-42c3-9e3c-8e60e5e126da.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7892840820077</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Biscoito Club Social 144g Presunto Novo</t>
+          <t>Batata Frita Lay`s Rústica Cream Cheese 68g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab83717-d397-4830-ac79-d8a294efa2fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a8b7548-9f01-40a8-a271-c8598f68fd76.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7892840820640</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Salgadinho Piraque Queijo 100g</t>
+          <t>Batata Lays Rústicas Sal Marinho 68g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7678ae9-5eda-4433-a898-96c7a8f7890c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24e6f686-8a88-49a9-8c4f-e76ac60f3f81.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7892840820633</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Salgadinho Piraque Presuntinho 100g</t>
+          <t>Batata Palha Elma Chips Tradicional 100g</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49fa8f03-81a0-425c-9a4d-b19cb1edcfa0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24a97b91-25f1-4fac-985e-fef425879264.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7892840820381</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1714,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Batata Frita Lays 115g Sour Cream</t>
+          <t>Batata Palha Extra Fina Elma Chips 90g</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1524,7 +1724,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/800d5e2f-bb16-41b7-a716-0044dfa63b59.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d1bbaf3-4210-4066-b796-56c6f7d48530.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7892840820398</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Biscoito Club Social Cebola Com Sour Cream 141g</t>
+          <t>Elma Chips Sensacoes 40g Frango Grelhado</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a8a40b5-3ddb-4c23-8c8d-5333da32f8a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06012b74-ae50-40bb-aa89-8bb67308ba67.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7892840820183</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Salgadinho Hits Sol 80gr Original</t>
+          <t>Elma Chips Sensacoes 40g Peito De Peru</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ede6431a-c91c-47bd-8bd5-8ccd3420020a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b0abdb1-2f9a-48a2-a5a4-e593a43c9dad.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7892840820244</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Batata Frita Lays 70g Salt Vinegar</t>
+          <t>Batata Pringles 109g Queijo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84262f7b-6e54-417b-8a82-706f1b55e7e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aa99006-8a68-498f-894e-d06a1fbdaf70.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896004006284</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Snack Club Social 68 Gr Barbecue</t>
+          <t>Snack Tai Kalassi Rice Crack 100g Barbecue</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31031983-8841-450d-94d0-178d964ce251.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ce073b0-9201-4c41-9e81-31a4dbcd4c75.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896053800581</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Mix 36g</t>
+          <t>Batata Pringles 109g Churrasco</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6395539-ae53-4dfa-9cf1-599f0d666805.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/311eaacb-fa88-4efb-95a0-4b3365dfa553.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896004006284</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Batata Ruffles 33g Original</t>
+          <t>Batata Palha Da Terrinha 100g Extra Fina</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96248e5d-85a7-4a71-b135-c2f4074ffcfe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11343bf0-4629-4b26-acb1-d8530bdb5805.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891095031122</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Salgadinho Ebicen 30g Cebola</t>
+          <t>Batata Palha Da Terrinha 100g Tradicional</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e4cf8cf-0b54-459c-8244-7f7c60362fff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c61b9655-e3c8-42a1-8303-70e73ccba2b4.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7892840818241</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Batata Ruffles 115g Churrasco</t>
+          <t>Salgadinho Elma Chips Popcorners 57g Adocicado</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f95c356-d82c-419c-973a-6a57e2c690bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/685ed0ae-6ea8-4460-bcf2-95d3c4cd90c0.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7892840821746</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Batata Ruffles 115g Salsa E Cebola</t>
+          <t>Salgadinho De Milho Elma Chips Popcorners 57g Sea Salt</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a3604f7-d67e-47ab-a625-6af41305d14e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/305c1194-545a-45bd-af46-2149f11eb9ee.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7892840821722</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Biscoito Salg Tucs 100g Churrasco</t>
+          <t>Salgadinho Elma Chips Popcorners 57g White Cheddar</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23d8d68b-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39297822-abbc-4170-a05b-c06eaaf7904d.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7892840821739</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Salgadinho Ebicen Camarão 60gr</t>
+          <t>Batata Ruffles Tudo 100g Original</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/869c60dd-22ec-4a43-bb55-f39b4142d8d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3321b3cd-d1b9-4c0f-af43-068ba71d7c1e.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7892840822972</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Salgadinho Lucky Fofura 60g Churrasco</t>
+          <t>Batata Frita Lays 115g Sour Cream</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee0e9694-0944-4d27-b540-be06f3ad44e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/800d5e2f-bb16-41b7-a716-0044dfa63b59.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7892840820640</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Biscoito Club Social Crostini Queijo Parmesão E Vegetais 80g</t>
+          <t>Batata Frita Lays 70g Salt Vinegar</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cf996c8-17aa-48e6-a337-64adff413a29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84262f7b-6e54-417b-8a82-706f1b55e7e1.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7892840823382</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Salgadinho Hits Sol 80gr Presunto</t>
+          <t>Batata Frita Lays 70g Sour Cream</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab647bb0-8fe0-4fc6-940c-fa1e7ab0dfaf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7646f389-b758-441b-a8be-c06a4629fa2f.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7892840820640</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Batata Ruffles 68g Original</t>
+          <t>Batata Ruffles 33g Churrasco</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1f63441-31b6-4e07-bcae-539deca64636.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/710274d8-d75d-4d2a-830b-63f56ce4f1f1.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7892840822965</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Salgadinho Fandangos 160g Queijo</t>
+          <t>Batata Ruffles 33g Original</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/404f660d-8523-4abb-be94-6ffbcdd77574.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96248e5d-85a7-4a71-b135-c2f4074ffcfe.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7892840822972</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 120g Sweet Chilli</t>
+          <t>Batata Ruffles 33g Salsa E Cebola</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/333766a7-5cc2-4443-9517-ef50a218c2f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b303ada1-bef6-4b5e-952c-8a1e839790d5.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7892840822972</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Tucs 100g Queijo</t>
+          <t>Batata Ruffles 68g Churrasco</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9fc719d-06ee-4051-a384-98000acd29a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24f69939-ecaa-4c8d-bdd9-19d4e7e6d782.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7892840822965</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Salgadinho Cebolitos 45g</t>
+          <t>Batata Ruffles 68g Original</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fbd17bb-8036-43ae-87e7-651e5167576f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1f63441-31b6-4e07-bcae-539deca64636.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7892840822972</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Salgadinho Fandangos 60g Presunto</t>
+          <t>Batata Sensacaoes Elma Chips 70g Frango</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c4e9e67-14dd-410b-9a8d-1756bd0557ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6d49f6b-502d-4b0c-9e52-a7c2a043dfef.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7892840823429</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Biscoito Tucs Din 100g Salame</t>
+          <t>Batata Sensacaoes Elma Chips 70g Peru</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9fe9c55-b29c-4586-854d-28e2c61c4248.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb06ac76-4283-4a29-9f88-f4ff1b25b69f.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7892840823443</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Batata Palha Torre De Babel 100g Tradicional</t>
+          <t>Palitinho Stiksy Elma Chips 160g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b1066ff-2b2f-4fbb-b690-01a738857767.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d30164bb-68cb-4a87-be31-8fa8c4fe2b14.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7892840822613</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Biscoito Salgado Club Social Bacon E Queijo Provolone 141g</t>
+          <t>Palitinho Stiksy Elma Chips 76g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ed51be4-032a-4869-8e95-33c8a0483786.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ecc6dc1-8e17-451c-a5bd-b8e2f336a243.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7892840822583</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Salgadinho Luck Fofura 60g Cebola</t>
+          <t>Pingo D Ouro Elma Chips 120g Picanha</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa9e893f-e3f1-4c54-bd86-033da90fd126.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e435f003-6e73-4a39-ad5f-6767f1658c33.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7892840823146</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Salgadinho Lucky Torcida 60g Churrasco</t>
+          <t>Pingo D Ouro Elma Chips 160g Bacon</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25ba54fa-c3aa-4f28-88a4-6df9bd04ee4f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd3cc97a-e106-411b-a268-ce16018dca35.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7892840823108</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Elma Chips Sensacoes 40g Peito De Peru</t>
+          <t>Pingo D Ouro Elma Chips 76g Bacon</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b0abdb1-2f9a-48a2-a5a4-e593a43c9dad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89040113-5b84-4ba1-9ebe-d481eae76bb7.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7892840823108</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Salgadinho Tostitos Redondo 110g Sal Marinho</t>
+          <t>Salgadinho Baconzitos Elma Chips 130g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7bc376dc-66d2-4948-813e-d7fa6e4f5af6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a0ab121-ce66-47b7-8601-f072d3aa76b5.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7892840822798</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Batata Lays Rústicas Sal Marinho 68g</t>
+          <t>Salgadinho Baconzitos Elma Chips 42g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24e6f686-8a88-49a9-8c4f-e76ac60f3f81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d59a945f-76dc-4750-a861-d56b25ad40ea.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7892840822798</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Salgadinho Lucky Torcida 60g Cebola</t>
+          <t>Salgadinho Baconzitos Elma Chips 86g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5ae4736-a0f4-4f8e-b785-4631ea23862d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac964a88-120e-414a-b41b-b51be6167375.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7892840822798</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Snack Club Social 68gr Pizza Marguerita</t>
+          <t>Salgadinho Cebolitos 138g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9376015f-b1c4-40a4-8ac7-8254d36ec4b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/235b9b0c-cd0a-41a9-8e92-16cb4d70174e.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7892840822941</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pingo D Ouro Elma Chips 160g Bacon</t>
+          <t>Salgadinho Cheetos Bola 131g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd3cc97a-e106-411b-a268-ce16018dca35.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22c6aaff-ed9a-4581-93a5-ae767de95ebc.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7892840822279</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Salgadinho Ebicen Cebola 60gr</t>
+          <t>Salgadinho Cheetos Bola 33g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69086cb4-a38d-42b6-9a6b-5ed53c7c8788.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31c96b4b-b7b7-4505-8203-8a0e3fb1511b.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7892840822279</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Batata Palha Torre De Babel 100g Extra Fina</t>
+          <t>Salgadinho Cheetos Mix 36g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22e212bb-7ca9-4948-a543-18130dce0216.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6395539-ae53-4dfa-9cf1-599f0d666805.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7892840822330</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Biscoito Club Social Crostini 80gr Tomate Seco/salsa</t>
+          <t>Salgadinho Doritos 120g Sweet Chilli</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa164dd5-0d26-4b71-8c4b-fc31f6d45501.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/333766a7-5cc2-4443-9517-ef50a218c2f7.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7892840822729</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2834,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Palitinho Stiksy Elma Chips 76g</t>
+          <t>Salgadinho Doritos 32g Nacho</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2469,7 +2844,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ecc6dc1-8e17-451c-a5bd-b8e2f336a243.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04a74252-a8cc-4a05-95bc-774a3e8c905c.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7892840822385</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Snack Club Social 68 Gr Parmesão</t>
+          <t>Salgadinho Doritos 32g Sweet Chilli</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cf84c45-11e5-4178-84d5-d1e10b8f1fb0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d146a861-8dc8-467d-b3d5-879e7b32feee.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7892840822392</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Batata Ruffles 68g Cebola &amp; Salsa</t>
+          <t>Salgadinho Doritos 75g Nacho</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3922c14-9de6-422b-9b1d-f6dd7a9b4c03.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e95c21ce-3d84-4c78-8b41-fdd2944341eb.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7892840822385</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2930,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Palitinho Stiksy Elma Chips 160g</t>
+          <t>Batata Frita Lays 70g Classica</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2550,7 +2940,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d30164bb-68cb-4a87-be31-8fa8c4fe2b14.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c8095aa-4d67-4993-bec8-899623191318.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7892840823382</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Bola 131g</t>
+          <t>Salgadinho Cheetos Mix 131g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22c6aaff-ed9a-4581-93a5-ae767de95ebc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfdddd35-a8e7-47c1-be4b-2434f4e2b676.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7892840822330</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Bola 33g</t>
+          <t>Salgadinho Takis 56g Extremo Fuego Pimenta</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31c96b4b-b7b7-4505-8203-8a0e3fb1511b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c31dc7-5b07-45fa-aac2-8eec8a79672b.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896002311748</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Salgadinho Bacon Pepe Legal 80g Listrado</t>
+          <t>Salgadinho Takis 56g Muito Picante Xplosion Queijo</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1197c9f5-87da-4277-a24e-9771b271af8a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d10ef250-6d37-418f-961b-0b13239f4940.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896002311755</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Salgadinho De Milho Elma Chips Popcorners 57g Sea Salt</t>
+          <t>Salgadinho Takis 90g Extremo Fuego Pimenta</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,98</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/305c1194-545a-45bd-af46-2149f11eb9ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab509eb-1186-4bf3-ab11-df6e0d689da1.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7896002311779</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Batata Frita Lay`s Rústica Cream Cheese 68g</t>
+          <t>Salgadinho Takis 90g Hot Chilli Carne Grelhada Especiarias</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,98</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a8b7548-9f01-40a8-a271-c8598f68fd76.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1ffa794-343a-4c0a-95b8-55d662830a86.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7896002311793</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Salgadinho Hits Sol 80gr Queijo</t>
+          <t>Salgadinho Takis 90g Muito Picante Xplosion Queijo</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 6,98</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a9989e2-9f69-4f1c-a19f-9c27da571adf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afcafe9d-c8a6-4f01-9663-07809664bf4c.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7896002311786</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Salgadinho Lucky Torcida 60g Pimenta Mexicana</t>
+          <t>Salgadinho Doritos 60g Dinamita Flamin Hot</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80a8a880-c7ed-464b-a8ec-5d67afe2637d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53e6d8e9-981c-4335-806a-113745dbb6f6.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7892840822378</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Salgadinho Luck Fofura 60g Queijo</t>
+          <t>Salgadinho Doritos 60g Dinamita Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56b4d9e7-0c7c-4771-860c-803feb0a6b85.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8dc4e59-18b0-48bf-a717-b15826586d8f.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7892840823481</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Salgadinho Fofura 60g Presunto</t>
+          <t>Salgadinho Tostitos Redondo 110g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d7cb866-9c47-4381-9dc4-36b76d2afafc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/164bfef1-c425-41c6-8fc5-8922b36ba15b.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7892840823580</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Batata Ruffles 33g Salsa E Cebola</t>
+          <t>Salgadinho Tostitos Redondo 110g Sal Marinho</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b303ada1-bef6-4b5e-952c-8a1e839790d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7bc376dc-66d2-4948-813e-d7fa6e4f5af6.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7892840823566</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Lua 35g</t>
+          <t>Salgadinho Tostitos Rendondo 260g Sal Marinho</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a513bb18-21b1-446f-9d7c-b733fe814b1a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8293835-0ae8-4292-b979-36fa8cf01072.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7892840823566</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Salg Roots To Go 45g Azeite/manjericao</t>
+          <t>Salgadinho Fofura 60g Presunto</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/162511a1-fc04-4ed6-a693-9db8062fb843.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d7cb866-9c47-4381-9dc4-36b76d2afafc.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7892840823207</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Batata Ruffles 68g Churrasco</t>
+          <t>Salgadinho Lucky Torcida 60g Queijo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24f69939-ecaa-4c8d-bdd9-19d4e7e6d782.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/198b11c6-b35e-4d52-a924-a40eb79bd856.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7892840822644</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Salgadinho Elma Chips Popcorners 57g White Cheddar</t>
+          <t>Salgadinho Doritos Ketchup Pacote 110g</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39297822-abbc-4170-a05b-c06eaaf7904d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2a25d75-93dd-4d57-b3e0-e820d1df55ea.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7892840823771</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pingo D Ouro Elma Chips 76g Bacon</t>
+          <t>Salgadinho Doritos Mostarda Pacote 110g</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89040113-5b84-4ba1-9ebe-d481eae76bb7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c75da5c3-3520-42a9-9806-c4cb533a579b.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7892840823764</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Salgadinho Fandangos 35g Presunto</t>
+          <t>Salgado Cheetos 160g Crunchy M Cheddar</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 14,98</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be25296b-cd24-4dde-826d-3e56ffc07ad0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0174d265-941a-4d6c-b5ad-a34fbb5345ee.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7892840823979</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 140g Pizza</t>
+          <t>Salgadinho Fandangos 35g Queijo</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4e197db-7001-42c3-9e3c-8e60e5e126da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ea6b74f-3eb9-421c-97b4-c7ed8b8cad33.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7892840822866</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Salgadinho Baconzitos Elma Chips 42g</t>
+          <t>Salgadinho Lucky Torcida 60g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d59a945f-76dc-4750-a861-d56b25ad40ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80a8a880-c7ed-464b-a8ec-5d67afe2637d.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7892840822637</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3538,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Salgadinho Lucky Torcida 60g Costelinha Limão</t>
+          <t>Salgadinho Lucky Torcida 60g Cebola</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3063,7 +3548,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31d2617f-9031-4c40-b27e-8df3d0203d57.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5ae4736-a0f4-4f8e-b785-4631ea23862d.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7892840822576</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pingo D Ouro Elma Chips 120g Picanha</t>
+          <t>Salgadinho Lucky Torcida 60g Costelinha Limão</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e435f003-6e73-4a39-ad5f-6767f1658c33.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31d2617f-9031-4c40-b27e-8df3d0203d57.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7892840822606</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Salgadinho Baconzitos Elma Chips 86g</t>
+          <t>Pipoca Microondas Yoki 160g Cobertura De Chocolate</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac964a88-120e-414a-b41b-b51be6167375.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4874c9c-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7891095017553</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Batata Sensacaoes Elma Chips 70g Peru</t>
+          <t>Pipoca Microondas Yoki 95g Netflix Cheddar</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb06ac76-4283-4a29-9f88-f4ff1b25b69f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e4ee548-c6ba-4b60-a809-bc55bfa81cd0.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7891095911738</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Salg Trigo Tiba 70g Bacon</t>
+          <t>Batata Ondulada Elma Chips Ruffles 110g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69c03d4e-4128-45da-b2dc-f1a5176ac35b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fbbdd1e-db2e-4cdb-9803-ac050b84378a.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7892840824372</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Chip Mix S/gluten Natural Life 70gr Chur</t>
+          <t>Batata Ondulada Elma Chips Ruffles 65g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2528a3b-69ab-4a0c-a7cd-261b3ec6322f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/764f2c83-9226-4cbe-ad0d-9fd4afa3ec3a.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7892840824204</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Elma Chips Sensacoes 40g Frango Grelhado</t>
+          <t>Salgadinho Elma Chips Cheetos Crunchy 120g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06012b74-ae50-40bb-aa89-8bb67308ba67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b00b13a-b0dd-4aa4-bbb7-179a1554e55d.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7892840824235</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Salgadinho Baconzitos Elma Chips 130g</t>
+          <t>Batata Frita Lisa Lobits 40g Original</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a0ab121-ce66-47b7-8601-f072d3aa76b5.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7896499903372</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Salg Roots To Go 45g Original</t>
+          <t>Batata Frita Lisa Lobits 70g Original</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6f2ac68-663a-4fac-aee0-bddd752ac4a2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7896499903365</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Batata Sensacaoes Elma Chips 70g Frango</t>
+          <t>Batata Frita Lisa Lobits 70g Sour Cream</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6d49f6b-502d-4b0c-9e52-a7c2a043dfef.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7896499903365</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Salgadinho Cebolitos Elma Chips 190g</t>
+          <t>Batata Ondulada Lobits 40g Original</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/265198d4-6360-463e-aa92-289d87265ed7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3d19e2a-5953-44d2-8f6e-501431a4ff97.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7896499903280</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3890,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Batata Ruffles 33g Churrasco</t>
+          <t>Batata Palha Friks 80g</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3360,7 +3900,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/710274d8-d75d-4d2a-830b-63f56ce4f1f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f0d986d-3bac-446e-b70e-93da076b719b.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7898937826410</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Salgado Cheetos 160g Crunchy M Cheddar</t>
+          <t>Batata Ondulada Lobits 40g Galeto</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0174d265-941a-4d6c-b5ad-a34fbb5345ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7bf977dd-3e10-4bbb-8eb4-4a27af809989.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7896499903273</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Lua 143g</t>
+          <t>Salgadinho De Trigo Lobits 35g Churrasco</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51d341ed-96eb-473b-a6f2-96d7e6c7119c.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896499903426</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Salgadinho Tostitos Redondo 110g Pimenta Mexicana</t>
+          <t>Salgadinho De Trigo Lobits 35g Galeto</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/164bfef1-c425-41c6-8fc5-8922b36ba15b.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7896499903433</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Salgadinho Elma Chips Popcorners 57g Adocicado</t>
+          <t>Salgadinho De Trigo Lobits 35g Pimenta Mexicana</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/685ed0ae-6ea8-4460-bcf2-95d3c4cd90c0.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7896499903457</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 32g Sweet Chilli</t>
+          <t>Batata Palha Torre De Babel 100g Extra Fina</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d146a861-8dc8-467d-b3d5-879e7b32feee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22e212bb-7ca9-4948-a543-18130dce0216.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7891095031122</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Salgadinho Cebolitos 138g</t>
+          <t>Batata Pringles 105g Pizza Marguerita</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/235b9b0c-cd0a-41a9-8e92-16cb4d70174e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fce87ed3-a7ea-4e71-b73c-8b704ec33ef1.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7896004010625</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Salgadinho Cheetos Mix 131g</t>
+          <t>Snack Mucilon 35g Morango/banana</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfdddd35-a8e7-47c1-be4b-2434f4e2b676.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5475841-4f32-42a5-b771-2aa071cb451f.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7891000369159</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Salgadinho Doritos 60g Dinamita Pimenta Mexicana</t>
+          <t>Snack Nestle Mucilon 35g Tradicional</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8dc4e59-18b0-48bf-a717-b15826586d8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/004cbc76-925d-4f45-a3fd-b4cd5d40e156.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7891000320242</t>
         </is>
       </c>
     </row>
@@ -3593,1340 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Salgadinho Fandangos 35g Queijo</t>
+          <t>Snack Mucilon 35g Laranja/banana</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ea6b74f-3eb9-421c-97b4-c7ed8b8cad33.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Salgadinho Doritos 60g Dinamita Flamin Hot</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53e6d8e9-981c-4335-806a-113745dbb6f6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Salg Roots To Go 45g Sweet Potato</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7915eb3-59d9-429e-8ce1-05a47951d773.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Salgadinho Takis 56g Muito Picante Xplosion Queijo</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 4,98</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d10ef250-6d37-418f-961b-0b13239f4940.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Salgadinho Takis 90g Extremo Fuego Pimenta</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 6,98</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab509eb-1186-4bf3-ab11-df6e0d689da1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Salgadinho Doritos 78g Pizza</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/515f5f37-c0db-464f-b878-224fb4b9158a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Salgadinho Takis 56g Extremo Fuego Pimenta</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 4,98</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c31dc7-5b07-45fa-aac2-8eec8a79672b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Salgadinho Takis 90g Hot Chilli Carne Grelhada Especiarias</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 6,98</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1ffa794-343a-4c0a-95b8-55d662830a86.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Salgadinho Bacon Pepe Legal 180g Listrado</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e30a846-513c-428f-8dcd-ec743c43d7d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Snack Mucilon 35g Morango/banana</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5475841-4f32-42a5-b771-2aa071cb451f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Salgadinho Doritos Mostarda Pacote 110g</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c75da5c3-3520-42a9-9806-c4cb533a579b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Salgadinho Bacon Pepe Legal 70g Costelinha Com Limão</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5ddd607-6234-4967-93e2-7c04fc4d14f3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Salg Roots To Go 45g Especiarias</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f643e2b-8a75-4601-820f-4bd472335c28.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Snack Nestle Mucilon 35g Tradicional</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/004cbc76-925d-4f45-a3fd-b4cd5d40e156.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Pipoca Microondas Yoki 95g Netflix Cheddar</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e4ee548-c6ba-4b60-a809-bc55bfa81cd0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Salgadinho Takis 90g Muito Picante Xplosion Queijo</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 6,98</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afcafe9d-c8a6-4f01-9663-07809664bf4c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Salgadinho Doritos Ketchup Pacote 110g</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2a25d75-93dd-4d57-b3e0-e820d1df55ea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Salgadinho Bacon Pepe Legal 70g Cebola E Salsa</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/befc61e5-d534-40ae-a6ba-a596755b44ec.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Salgadinho Tostitos Rendondo 260g Sal Marinho</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8293835-0ae8-4292-b979-36fa8cf01072.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Salgadinho Elma Chips Cheetos Crunchy 120g Pimenta Mexicana</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b00b13a-b0dd-4aa4-bbb7-179a1554e55d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Biscoito Club Social 141g Cebola Caramelizada</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35dc14cd-ff9a-4da8-a6f2-f11d2920e43e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Snack Mucilon 35g Laranja/banana</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4011bb79-c40e-4c75-8d8f-eceb108480e4.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Salg Roots Go 45gr Dijon</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/965f5095-802f-4535-bf7a-2420a86501a0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Salgadinho Bacon Pepe Legal 70g Pimenta Mexicana</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0815d347-2717-4cf2-90f0-5b9ba74121ab.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Club Social Emb Economica 288g Presunto</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f25ab5f-7707-4e31-9176-7e89ddf12bd9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Salgadinho De Milho Lobits 90g Cebola</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c823ec45-a59b-480b-9c2d-282906d2c672.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Pipoca Microondas Yoki 160g Cobertura De Chocolate</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4874c9c-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Batata Palha Friks 80g</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f0d986d-3bac-446e-b70e-93da076b719b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Batata Ondulada Elma Chips Ruffles 110g Pimenta Mexicana</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fbbdd1e-db2e-4cdb-9803-ac050b84378a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Salgadinho Tostitos Rendondo 260g Pimenta Mexicana</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1a8499c-90ab-4784-b8c0-3f32af50da9c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Biscoito De Arroz Rice Cracker 100g Lime E Pepper</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fe1c2f9-f2ad-4e3d-9a2b-da83d2f9b79b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Biscoito De Arroz Rice Cracker 100g Barbecue</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef264db0-ba50-46e2-b0f0-74b6c8798a7a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Biscoito De Arroz Rice Cracker 100g Sweet Chili</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc0a710b-c719-4629-a526-eb41c3d850a3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Batata Ondulada Elma Chips Ruffles 65g Pimenta Mexicana</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/764f2c83-9226-4cbe-ad0d-9fd4afa3ec3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Salgadinho De Milho Lobits 200g Cebola</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/897ad95c-1f6c-4c66-84ca-699a35eac686.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Salgadinho De Milho Lobits 40g Cebola E Salsa</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c048c94-6235-47b2-9080-b4de7cf79f31.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Salgadinho De Trigo Lobits 35g Pimenta Mexicana</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Batata Frita Lisa Lobits 40g Original</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Batata Frita Lisa Lobits 40g Sour Cream</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Batata Frita Lisa Lobits 70g Original</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Batata Frita Lisa Lobits 70g Sour Cream</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Batata Ondulada Lobits 40g Churrasco</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Batata Ondulada Lobits 40g Original</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Batata Ondulada Lobits 40g Galeto</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Salgadinho De Milho Lobits 40g Requeijão</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf6f1684-1e66-4750-87cf-0d9c419b5762.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Salgadinho De Trigo Lobits 35g Bacon</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Salgadinho De Trigo Lobits 35g Cebola</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Salgadinho De Trigo Lobits 35g Churrasco</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Salgadinho De Trigo Lobits 35g Galeto</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>R$ 1,99</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Snacks e salgadinhos</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Batata Pringles 105g Pizza Marguerita</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fce87ed3-a7ea-4e71-b73c-8b704ec33ef1.jpg</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7891000369203</t>
         </is>
       </c>
     </row>
